--- a/Docs/Architecture.xlsx
+++ b/Docs/Architecture.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotNET_CA\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -19,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -964,7 +959,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Client Application</a:t>
+            <a:t>External </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>System</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1450,7 +1452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1492,7 +1494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1524,10 +1526,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,7 +1560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1735,14 +1735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
